--- a/data/management/Management_information_HAN_2019.xlsx
+++ b/data/management/Management_information_HAN_2019.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284FE77-D3A6-2043-9C80-1DC368146843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35500" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HAN_2019" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>General information</t>
   </si>
@@ -199,9 +205,6 @@
     <t>1st nitrogen application</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>1st herbicide</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
     <t>Leaf_rust</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>2nd application of insecticide</t>
   </si>
   <si>
@@ -301,21 +301,12 @@
     <t>oats</t>
   </si>
   <si>
-    <t>39 kg N/ha</t>
-  </si>
-  <si>
     <t>CCCLotus; MedaxTop</t>
   </si>
   <si>
     <t>0.75 l/ha</t>
   </si>
   <si>
-    <t>50kg N/ha</t>
-  </si>
-  <si>
-    <t>49kg N/ha</t>
-  </si>
-  <si>
     <t>2l</t>
   </si>
   <si>
@@ -349,15 +340,6 @@
     <t>10 m²</t>
   </si>
   <si>
-    <t>25kg/ha (Mg)</t>
-  </si>
-  <si>
-    <t>48 kg/ha (P)</t>
-  </si>
-  <si>
-    <t>96 kg/ha (K)</t>
-  </si>
-  <si>
     <t>P/K 12/24</t>
   </si>
   <si>
@@ -365,12 +347,24 @@
   </si>
   <si>
     <t>0.9 l/ha; 70g/ha;1l</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>1st magnesium application</t>
+  </si>
+  <si>
+    <t>1st phosphor application</t>
+  </si>
+  <si>
+    <t>1st potassium application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +553,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -622,15 +616,12 @@
     <xf numFmtId="14" fontId="0" fillId="10" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,14 +629,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,7 +677,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -755,7 +749,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,34 +922,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.140625" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="52.1640625" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -963,7 +957,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -971,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -987,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -995,7 +989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1011,33 +1005,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1045,37 +1039,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1078,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1087,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1104,41 +1098,41 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1141,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -1156,7 +1150,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +1159,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1174,7 +1168,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -1183,7 +1177,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1192,40 +1186,40 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" s="8">
         <v>43545</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C34" s="8">
         <v>43545</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C35" s="8">
         <v>43545</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -1236,7 +1230,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1247,7 +1241,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -1258,7 +1252,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -1269,7 +1263,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -1280,14 +1274,14 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -1302,7 +1296,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1347,37 +1341,37 @@
       <c r="C45" s="13">
         <v>43557</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>95</v>
+      <c r="D45" s="26">
+        <v>39</v>
       </c>
       <c r="E45" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="G45" s="15">
         <v>43563</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K45" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="19">
         <v>43579</v>
@@ -1387,24 +1381,24 @@
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="19">
         <v>43622</v>
@@ -1414,113 +1408,119 @@
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="15">
         <v>43619</v>
       </c>
       <c r="H47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="J47" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="K47" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C48" s="19">
         <v>43551</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>111</v>
+      <c r="D48" s="23">
+        <v>25</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K48" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="27"/>
+      <c r="B49" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="22">
+        <v>43563</v>
+      </c>
+      <c r="D49" s="23">
+        <v>48</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="F49" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K49" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="C50" s="22">
         <v>43563</v>
       </c>
-      <c r="D50" s="23" t="s">
-        <v>112</v>
+      <c r="D50" s="23">
+        <v>96</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
       <c r="J50" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K50" s="18"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="24"/>
-      <c r="D51" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
@@ -1528,7 +1528,7 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1537,21 +1537,21 @@
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
       <c r="F52" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G52" s="15">
         <v>43563</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1560,21 +1560,21 @@
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="15">
         <v>43609</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -1582,9 +1582,9 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
     </row>
-    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>52</v>
@@ -1617,9 +1617,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>60</v>
@@ -1627,184 +1627,190 @@
       <c r="C56" s="13">
         <v>43557</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>98</v>
+      <c r="D56" s="26">
+        <v>50</v>
       </c>
       <c r="E56" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="G56" s="15">
         <v>43563</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K56" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="19">
         <v>43579</v>
       </c>
-      <c r="D57" s="23" t="s">
-        <v>99</v>
+      <c r="D57" s="23">
+        <v>49</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K57" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="19">
         <v>43622</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>98</v>
+      <c r="D58" s="23">
+        <v>50</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" s="15">
         <v>43619</v>
       </c>
       <c r="H58" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I58" s="16" t="s">
+      <c r="J58" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="J58" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="K58" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C59" s="19">
         <v>43551</v>
       </c>
-      <c r="D59" s="23" t="s">
-        <v>111</v>
+      <c r="D59" s="23">
+        <v>25</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G59" s="15"/>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
       <c r="J59" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K59" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="27"/>
+        <v>83</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="22">
+        <v>43563</v>
+      </c>
+      <c r="D60" s="23">
+        <v>48</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="F60" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="16"/>
       <c r="J60" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K60" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="C61" s="22">
         <v>43563</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>112</v>
+      <c r="D61" s="23">
+        <v>96</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
       <c r="J61" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K61" s="18"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="24"/>
-      <c r="D62" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
@@ -1812,53 +1818,53 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="20"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G63" s="15">
         <v>43563</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="20"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G64" s="15">
         <v>43609</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -1866,9 +1872,9 @@
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>52</v>
@@ -1901,9 +1907,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>60</v>
@@ -1911,256 +1917,262 @@
       <c r="C67" s="13">
         <v>43557</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>98</v>
+      <c r="D67" s="26">
+        <v>50</v>
       </c>
       <c r="E67" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="G67" s="15">
         <v>43563</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K67" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="19">
         <v>43579</v>
       </c>
-      <c r="D68" s="23" t="s">
-        <v>99</v>
+      <c r="D68" s="23">
+        <v>49</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="15"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
       <c r="J68" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K68" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="19">
         <v>43622</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>98</v>
+      <c r="D69" s="23">
+        <v>50</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" s="15">
         <v>43619</v>
       </c>
       <c r="H69" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I69" s="16" t="s">
+      <c r="J69" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="K69" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C70" s="19">
         <v>43551</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>111</v>
+      <c r="D70" s="23">
+        <v>25</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
       <c r="J70" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K70" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="22">
+        <v>43563</v>
+      </c>
+      <c r="D71" s="23">
+        <v>48</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="F71" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G71" s="15">
         <v>43567</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K71" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="C72" s="22">
         <v>43563</v>
       </c>
-      <c r="D72" s="23" t="s">
-        <v>112</v>
+      <c r="D72" s="23">
+        <v>96</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G72" s="15">
         <v>43609</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="24"/>
-      <c r="D73" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G73" s="15">
         <v>43623</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="20"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G74" s="15">
         <v>43563</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="20"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G75" s="15">
         <v>43609</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
@@ -2168,7 +2180,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
@@ -2176,9 +2188,9 @@
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>52</v>
@@ -2211,9 +2223,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>60</v>
@@ -2221,37 +2233,37 @@
       <c r="C79" s="13">
         <v>43557</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>95</v>
+      <c r="D79" s="26">
+        <v>39</v>
       </c>
       <c r="E79" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="G79" s="15">
         <v>43563</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K79" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="19">
         <v>43579</v>
@@ -2261,24 +2273,24 @@
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
       <c r="J80" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K80" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="19">
         <v>43622</v>
@@ -2288,180 +2300,186 @@
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G81" s="15">
         <v>43619</v>
       </c>
       <c r="H81" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I81" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="J81" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="K81" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C82" s="19">
         <v>43551</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>111</v>
+      <c r="D82" s="23">
+        <v>25</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G82" s="15"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
       <c r="J82" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K82" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="27"/>
+        <v>90</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="22">
+        <v>43563</v>
+      </c>
+      <c r="D83" s="23">
+        <v>48</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="F83" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G83" s="15">
         <v>43567</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K83" s="18">
         <v>43636</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="C84" s="22">
         <v>43563</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>112</v>
+      <c r="D84" s="23">
+        <v>96</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G84" s="15">
         <v>43609</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="24"/>
-      <c r="D85" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>114</v>
-      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G85" s="15">
         <v>43623</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="20"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
       <c r="F86" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G86" s="15">
         <v>43563</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="20"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G87" s="15">
         <v>43609</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
